--- a/user-data/gdp-growth/gdp-growth.xlsx
+++ b/user-data/gdp-growth/gdp-growth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1357,9 +1357,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1742,32 +1739,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13">
@@ -1783,11 +1780,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>453</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>454</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/gdp-growth/gdp-growth.xlsx
+++ b/user-data/gdp-growth/gdp-growth.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1363,7 +1363,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/gdp-growth/gdp-growth.xlsx
+++ b/user-data/gdp-growth/gdp-growth.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="455">
   <si>
     <t>id</t>
   </si>
@@ -1369,7 +1369,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1782,6 +1785,11 @@
         <v>453</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/gdp-growth/gdp-growth.xlsx
+++ b/user-data/gdp-growth/gdp-growth.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1378,7 +1378,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -8223,7 +8223,7 @@
         <v>2000</v>
       </c>
       <c r="D467" t="n">
-        <v>17085587280.0584</v>
+        <v>4026612205.0413</v>
       </c>
     </row>
     <row r="468">
@@ -8237,7 +8237,7 @@
         <v>2001</v>
       </c>
       <c r="D468" t="n">
-        <v>17081959929.322</v>
+        <v>4350296727.34395</v>
       </c>
     </row>
     <row r="469">
@@ -8251,7 +8251,7 @@
         <v>2002</v>
       </c>
       <c r="D469" t="n">
-        <v>16837549854.0911</v>
+        <v>4641239388.9958</v>
       </c>
     </row>
     <row r="470">
@@ -8265,7 +8265,7 @@
         <v>2003</v>
       </c>
       <c r="D470" t="n">
-        <v>16575664553.5382</v>
+        <v>5036018513.98357</v>
       </c>
     </row>
     <row r="471">
@@ -8279,7 +8279,7 @@
         <v>2004</v>
       </c>
       <c r="D471" t="n">
-        <v>16873007966.3043</v>
+        <v>5556769455.1132</v>
       </c>
     </row>
     <row r="472">
@@ -8293,7 +8293,7 @@
         <v>2005</v>
       </c>
       <c r="D472" t="n">
-        <v>17084927539.8488</v>
+        <v>6293046162.12584</v>
       </c>
     </row>
     <row r="473">
@@ -8307,7 +8307,7 @@
         <v>2006</v>
       </c>
       <c r="D473" t="n">
-        <v>17343908109.2998</v>
+        <v>6970875649.4364</v>
       </c>
     </row>
     <row r="474">
@@ -8321,7 +8321,7 @@
         <v>2007</v>
       </c>
       <c r="D474" t="n">
-        <v>17650034467.1732</v>
+        <v>7682781330.76818</v>
       </c>
     </row>
     <row r="475">
@@ -8335,7 +8335,7 @@
         <v>2008</v>
       </c>
       <c r="D475" t="n">
-        <v>18098846864.1737</v>
+        <v>8196880595.72915</v>
       </c>
     </row>
     <row r="476">
@@ -8349,7 +8349,7 @@
         <v>2009</v>
       </c>
       <c r="D476" t="n">
-        <v>18687322493.6039</v>
+        <v>8203987041.96069</v>
       </c>
     </row>
     <row r="477">
@@ -8363,7 +8363,7 @@
         <v>2010</v>
       </c>
       <c r="D477" t="n">
-        <v>19064365124.0563</v>
+        <v>8693197235.58737</v>
       </c>
     </row>
     <row r="478">
@@ -8377,7 +8377,7 @@
         <v>2011</v>
       </c>
       <c r="D478" t="n">
-        <v>18227961888.8237</v>
+        <v>9307768894.69155</v>
       </c>
     </row>
     <row r="479">
@@ -8391,7 +8391,7 @@
         <v>2012</v>
       </c>
       <c r="D479" t="n">
-        <v>20173630103.8468</v>
+        <v>9988478192.79519</v>
       </c>
     </row>
     <row r="480">
@@ -8405,7 +8405,7 @@
         <v>2013</v>
       </c>
       <c r="D480" t="n">
-        <v>21928892762.5909</v>
+        <v>10728239024.4133</v>
       </c>
     </row>
     <row r="481">
@@ -8431,7 +8431,7 @@
         <v>2000</v>
       </c>
       <c r="D482" t="n">
-        <v>4026612205.0413</v>
+        <v>13827130249.6687</v>
       </c>
     </row>
     <row r="483">
@@ -8445,7 +8445,7 @@
         <v>2001</v>
       </c>
       <c r="D483" t="n">
-        <v>4350296727.34395</v>
+        <v>14451324392.6743</v>
       </c>
     </row>
     <row r="484">
@@ -8459,7 +8459,7 @@
         <v>2002</v>
       </c>
       <c r="D484" t="n">
-        <v>4641239388.9958</v>
+        <v>15030684428.7189</v>
       </c>
     </row>
     <row r="485">
@@ -8473,7 +8473,7 @@
         <v>2003</v>
       </c>
       <c r="D485" t="n">
-        <v>5036018513.98357</v>
+        <v>15636570313.337</v>
       </c>
     </row>
     <row r="486">
@@ -8487,7 +8487,7 @@
         <v>2004</v>
       </c>
       <c r="D486" t="n">
-        <v>5556769455.1132</v>
+        <v>16215413325.3553</v>
       </c>
     </row>
     <row r="487">
@@ -8501,7 +8501,7 @@
         <v>2005</v>
       </c>
       <c r="D487" t="n">
-        <v>6293046162.12584</v>
+        <v>16587857509.4422</v>
       </c>
     </row>
     <row r="488">
@@ -8515,7 +8515,7 @@
         <v>2006</v>
       </c>
       <c r="D488" t="n">
-        <v>6970875649.4364</v>
+        <v>17122650530.6179</v>
       </c>
     </row>
     <row r="489">
@@ -8529,7 +8529,7 @@
         <v>2007</v>
       </c>
       <c r="D489" t="n">
-        <v>7682781330.76818</v>
+        <v>17680106584.201</v>
       </c>
     </row>
     <row r="490">
@@ -8543,7 +8543,7 @@
         <v>2008</v>
       </c>
       <c r="D490" t="n">
-        <v>8196880595.72915</v>
+        <v>18190009032.2851</v>
       </c>
     </row>
     <row r="491">
@@ -8557,7 +8557,7 @@
         <v>2009</v>
       </c>
       <c r="D491" t="n">
-        <v>8203987041.96069</v>
+        <v>18541412829.2288</v>
       </c>
     </row>
     <row r="492">
@@ -8571,7 +8571,7 @@
         <v>2010</v>
       </c>
       <c r="D492" t="n">
-        <v>8693197235.58737</v>
+        <v>19147466510.8896</v>
       </c>
     </row>
     <row r="493">
@@ -8585,7 +8585,7 @@
         <v>2011</v>
       </c>
       <c r="D493" t="n">
-        <v>9307768894.69155</v>
+        <v>19940284948.0666</v>
       </c>
     </row>
     <row r="494">
@@ -8599,7 +8599,7 @@
         <v>2012</v>
       </c>
       <c r="D494" t="n">
-        <v>9988478192.79519</v>
+        <v>20855292520.4708</v>
       </c>
     </row>
     <row r="495">
@@ -8613,7 +8613,7 @@
         <v>2013</v>
       </c>
       <c r="D495" t="n">
-        <v>10728239024.4133</v>
+        <v>22015198848.7462</v>
       </c>
     </row>
     <row r="496">
@@ -8639,7 +8639,7 @@
         <v>2000</v>
       </c>
       <c r="D497" t="n">
-        <v>13827130249.6687</v>
+        <v>1026878406014.38</v>
       </c>
     </row>
     <row r="498">
@@ -8653,7 +8653,7 @@
         <v>2001</v>
       </c>
       <c r="D498" t="n">
-        <v>14451324392.6743</v>
+        <v>1044215955948.5</v>
       </c>
     </row>
     <row r="499">
@@ -8667,7 +8667,7 @@
         <v>2002</v>
       </c>
       <c r="D499" t="n">
-        <v>15030684428.7189</v>
+        <v>1073473509321.13</v>
       </c>
     </row>
     <row r="500">
@@ -8681,7 +8681,7 @@
         <v>2003</v>
       </c>
       <c r="D500" t="n">
-        <v>15636570313.337</v>
+        <v>1094141282236.08</v>
       </c>
     </row>
     <row r="501">
@@ -8695,7 +8695,7 @@
         <v>2004</v>
       </c>
       <c r="D501" t="n">
-        <v>16215413325.3553</v>
+        <v>1128484060363.83</v>
       </c>
     </row>
     <row r="502">
@@ -8709,7 +8709,7 @@
         <v>2005</v>
       </c>
       <c r="D502" t="n">
-        <v>16587857509.4422</v>
+        <v>1164179473989.7</v>
       </c>
     </row>
     <row r="503">
@@ -8723,7 +8723,7 @@
         <v>2006</v>
       </c>
       <c r="D503" t="n">
-        <v>17122650530.6179</v>
+        <v>1194701718212.31</v>
       </c>
     </row>
     <row r="504">
@@ -8737,7 +8737,7 @@
         <v>2007</v>
       </c>
       <c r="D504" t="n">
-        <v>17680106584.201</v>
+        <v>1218695044466.88</v>
       </c>
     </row>
     <row r="505">
@@ -8751,7 +8751,7 @@
         <v>2008</v>
       </c>
       <c r="D505" t="n">
-        <v>18190009032.2851</v>
+        <v>1233019906197.31</v>
       </c>
     </row>
     <row r="506">
@@ -8765,7 +8765,7 @@
         <v>2009</v>
       </c>
       <c r="D506" t="n">
-        <v>18541412829.2288</v>
+        <v>1199586927260.28</v>
       </c>
     </row>
     <row r="507">
@@ -8779,7 +8779,7 @@
         <v>2010</v>
       </c>
       <c r="D507" t="n">
-        <v>19147466510.8896</v>
+        <v>1240064039787.75</v>
       </c>
     </row>
     <row r="508">
@@ -8793,7 +8793,7 @@
         <v>2011</v>
       </c>
       <c r="D508" t="n">
-        <v>19940284948.0666</v>
+        <v>1271415142973.47</v>
       </c>
     </row>
     <row r="509">
@@ -8807,7 +8807,7 @@
         <v>2012</v>
       </c>
       <c r="D509" t="n">
-        <v>20855292520.4708</v>
+        <v>1293143699677.33</v>
       </c>
     </row>
     <row r="510">
@@ -8821,7 +8821,7 @@
         <v>2013</v>
       </c>
       <c r="D510" t="n">
-        <v>22015198848.7462</v>
+        <v>1319291280915.69</v>
       </c>
     </row>
     <row r="511">
@@ -8847,7 +8847,7 @@
         <v>2000</v>
       </c>
       <c r="D512" t="n">
-        <v>1026878406014.38</v>
+        <v>735999746.133224</v>
       </c>
     </row>
     <row r="513">
@@ -8861,7 +8861,7 @@
         <v>2001</v>
       </c>
       <c r="D513" t="n">
-        <v>1044215955948.5</v>
+        <v>752424717.535168</v>
       </c>
     </row>
     <row r="514">
@@ -8875,7 +8875,7 @@
         <v>2002</v>
       </c>
       <c r="D514" t="n">
-        <v>1073473509321.13</v>
+        <v>791933721.161982</v>
       </c>
     </row>
     <row r="515">
@@ -8889,7 +8889,7 @@
         <v>2003</v>
       </c>
       <c r="D515" t="n">
-        <v>1094141282236.08</v>
+        <v>825006926.855721</v>
       </c>
     </row>
     <row r="516">
@@ -8903,7 +8903,7 @@
         <v>2004</v>
       </c>
       <c r="D516" t="n">
-        <v>1128484060363.83</v>
+        <v>909133482.21766</v>
       </c>
     </row>
     <row r="517">
@@ -8917,7 +8917,7 @@
         <v>2005</v>
       </c>
       <c r="D517" t="n">
-        <v>1164179473989.7</v>
+        <v>971976952.231872</v>
       </c>
     </row>
     <row r="518">
@@ -8931,7 +8931,7 @@
         <v>2006</v>
       </c>
       <c r="D518" t="n">
-        <v>1194701718212.31</v>
+        <v>1049577166.50086</v>
       </c>
     </row>
     <row r="519">
@@ -8945,7 +8945,7 @@
         <v>2007</v>
       </c>
       <c r="D519" t="n">
-        <v>1218695044466.88</v>
+        <v>1208805243.41975</v>
       </c>
     </row>
     <row r="520">
@@ -8959,7 +8959,7 @@
         <v>2008</v>
       </c>
       <c r="D520" t="n">
-        <v>1233019906197.31</v>
+        <v>1289197084.21161</v>
       </c>
     </row>
     <row r="521">
@@ -8973,7 +8973,7 @@
         <v>2009</v>
       </c>
       <c r="D521" t="n">
-        <v>1199586927260.28</v>
+        <v>1272819077.0815</v>
       </c>
     </row>
     <row r="522">
@@ -8987,7 +8987,7 @@
         <v>2010</v>
       </c>
       <c r="D522" t="n">
-        <v>1240064039787.75</v>
+        <v>1291490221.89025</v>
       </c>
     </row>
     <row r="523">
@@ -9001,7 +9001,7 @@
         <v>2011</v>
       </c>
       <c r="D523" t="n">
-        <v>1271415142973.47</v>
+        <v>1342746676.74738</v>
       </c>
     </row>
     <row r="524">
@@ -9015,7 +9015,7 @@
         <v>2012</v>
       </c>
       <c r="D524" t="n">
-        <v>1293143699677.33</v>
+        <v>1359346553.36874</v>
       </c>
     </row>
     <row r="525">
@@ -9029,7 +9029,7 @@
         <v>2013</v>
       </c>
       <c r="D525" t="n">
-        <v>1319291280915.69</v>
+        <v>1366640588.70804</v>
       </c>
     </row>
     <row r="526">
@@ -9055,7 +9055,7 @@
         <v>2000</v>
       </c>
       <c r="D527" t="n">
-        <v>735999746.133224</v>
+        <v>1232871264.44534</v>
       </c>
     </row>
     <row r="528">
@@ -9069,7 +9069,7 @@
         <v>2001</v>
       </c>
       <c r="D528" t="n">
-        <v>752424717.535168</v>
+        <v>1287916286.65064</v>
       </c>
     </row>
     <row r="529">
@@ -9083,7 +9083,7 @@
         <v>2002</v>
       </c>
       <c r="D529" t="n">
-        <v>791933721.161982</v>
+        <v>1334493624.8209</v>
       </c>
     </row>
     <row r="530">
@@ -9097,7 +9097,7 @@
         <v>2003</v>
       </c>
       <c r="D530" t="n">
-        <v>825006926.855721</v>
+        <v>1262464741.98341</v>
       </c>
     </row>
     <row r="531">
@@ -9111,7 +9111,7 @@
         <v>2004</v>
       </c>
       <c r="D531" t="n">
-        <v>909133482.21766</v>
+        <v>1338149398.75938</v>
       </c>
     </row>
     <row r="532">
@@ -9125,7 +9125,7 @@
         <v>2005</v>
       </c>
       <c r="D532" t="n">
-        <v>971976952.231872</v>
+        <v>1350300947.46755</v>
       </c>
     </row>
     <row r="533">
@@ -9139,7 +9139,7 @@
         <v>2006</v>
       </c>
       <c r="D533" t="n">
-        <v>1049577166.50086</v>
+        <v>1452928387.05305</v>
       </c>
     </row>
     <row r="534">
@@ -9153,7 +9153,7 @@
         <v>2007</v>
       </c>
       <c r="D534" t="n">
-        <v>1208805243.41975</v>
+        <v>1570946903.87335</v>
       </c>
     </row>
     <row r="535">
@@ -9167,7 +9167,7 @@
         <v>2008</v>
       </c>
       <c r="D535" t="n">
-        <v>1289197084.21161</v>
+        <v>1632089449.71026</v>
       </c>
     </row>
     <row r="536">
@@ -9181,7 +9181,7 @@
         <v>2009</v>
       </c>
       <c r="D536" t="n">
-        <v>1272819077.0815</v>
+        <v>1777461809.35585</v>
       </c>
     </row>
     <row r="537">
@@ -9195,7 +9195,7 @@
         <v>2010</v>
       </c>
       <c r="D537" t="n">
-        <v>1291490221.89025</v>
+        <v>1895403784.96609</v>
       </c>
     </row>
     <row r="538">
@@ -9209,7 +9209,7 @@
         <v>2011</v>
       </c>
       <c r="D538" t="n">
-        <v>1342746676.74738</v>
+        <v>1957951366.23874</v>
       </c>
     </row>
     <row r="539">
@@ -9223,7 +9223,7 @@
         <v>2012</v>
       </c>
       <c r="D539" t="n">
-        <v>1359346553.36874</v>
+        <v>2038226859.11244</v>
       </c>
     </row>
     <row r="540">
@@ -9237,7 +9237,7 @@
         <v>2013</v>
       </c>
       <c r="D540" t="n">
-        <v>1366640588.70804</v>
+        <v>1304465871.49672</v>
       </c>
     </row>
     <row r="541">
@@ -9262,9 +9262,7 @@
       <c r="C542" t="n">
         <v>2000</v>
       </c>
-      <c r="D542" t="n">
-        <v>1232871264.44534</v>
-      </c>
+      <c r="D542"/>
     </row>
     <row r="543">
       <c r="A543" t="s">
@@ -9276,9 +9274,7 @@
       <c r="C543" t="n">
         <v>2001</v>
       </c>
-      <c r="D543" t="n">
-        <v>1287916286.65064</v>
-      </c>
+      <c r="D543"/>
     </row>
     <row r="544">
       <c r="A544" t="s">
@@ -9290,9 +9286,7 @@
       <c r="C544" t="n">
         <v>2002</v>
       </c>
-      <c r="D544" t="n">
-        <v>1334493624.8209</v>
-      </c>
+      <c r="D544"/>
     </row>
     <row r="545">
       <c r="A545" t="s">
@@ -9304,9 +9298,7 @@
       <c r="C545" t="n">
         <v>2003</v>
       </c>
-      <c r="D545" t="n">
-        <v>1262464741.98341</v>
-      </c>
+      <c r="D545"/>
     </row>
     <row r="546">
       <c r="A546" t="s">
@@ -9318,9 +9310,7 @@
       <c r="C546" t="n">
         <v>2004</v>
       </c>
-      <c r="D546" t="n">
-        <v>1338149398.75938</v>
-      </c>
+      <c r="D546"/>
     </row>
     <row r="547">
       <c r="A547" t="s">
@@ -9332,9 +9322,7 @@
       <c r="C547" t="n">
         <v>2005</v>
       </c>
-      <c r="D547" t="n">
-        <v>1350300947.46755</v>
-      </c>
+      <c r="D547"/>
     </row>
     <row r="548">
       <c r="A548" t="s">
@@ -9346,9 +9334,7 @@
       <c r="C548" t="n">
         <v>2006</v>
       </c>
-      <c r="D548" t="n">
-        <v>1452928387.05305</v>
-      </c>
+      <c r="D548"/>
     </row>
     <row r="549">
       <c r="A549" t="s">
@@ -9360,9 +9346,7 @@
       <c r="C549" t="n">
         <v>2007</v>
       </c>
-      <c r="D549" t="n">
-        <v>1570946903.87335</v>
-      </c>
+      <c r="D549"/>
     </row>
     <row r="550">
       <c r="A550" t="s">
@@ -9374,9 +9358,7 @@
       <c r="C550" t="n">
         <v>2008</v>
       </c>
-      <c r="D550" t="n">
-        <v>1632089449.71026</v>
-      </c>
+      <c r="D550"/>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -9388,9 +9370,7 @@
       <c r="C551" t="n">
         <v>2009</v>
       </c>
-      <c r="D551" t="n">
-        <v>1777461809.35585</v>
-      </c>
+      <c r="D551"/>
     </row>
     <row r="552">
       <c r="A552" t="s">
@@ -9402,9 +9382,7 @@
       <c r="C552" t="n">
         <v>2010</v>
       </c>
-      <c r="D552" t="n">
-        <v>1895403784.96609</v>
-      </c>
+      <c r="D552"/>
     </row>
     <row r="553">
       <c r="A553" t="s">
@@ -9416,9 +9394,7 @@
       <c r="C553" t="n">
         <v>2011</v>
       </c>
-      <c r="D553" t="n">
-        <v>1957951366.23874</v>
-      </c>
+      <c r="D553"/>
     </row>
     <row r="554">
       <c r="A554" t="s">
@@ -9430,9 +9406,7 @@
       <c r="C554" t="n">
         <v>2012</v>
       </c>
-      <c r="D554" t="n">
-        <v>2038226859.11244</v>
-      </c>
+      <c r="D554"/>
     </row>
     <row r="555">
       <c r="A555" t="s">
@@ -9444,9 +9418,7 @@
       <c r="C555" t="n">
         <v>2013</v>
       </c>
-      <c r="D555" t="n">
-        <v>1304465871.49672</v>
-      </c>
+      <c r="D555"/>
     </row>
     <row r="556">
       <c r="A556" t="s">
@@ -9470,7 +9442,9 @@
       <c r="C557" t="n">
         <v>2000</v>
       </c>
-      <c r="D557"/>
+      <c r="D557" t="n">
+        <v>3050372770.07279</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="s">
@@ -9482,7 +9456,9 @@
       <c r="C558" t="n">
         <v>2001</v>
       </c>
-      <c r="D558"/>
+      <c r="D558" t="n">
+        <v>3405989335.06579</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -9494,7 +9470,9 @@
       <c r="C559" t="n">
         <v>2002</v>
       </c>
-      <c r="D559"/>
+      <c r="D559" t="n">
+        <v>3695199035.91833</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="s">
@@ -9506,7 +9484,9 @@
       <c r="C560" t="n">
         <v>2003</v>
       </c>
-      <c r="D560"/>
+      <c r="D560" t="n">
+        <v>4239193933.42068</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="s">
@@ -9518,7 +9498,9 @@
       <c r="C561" t="n">
         <v>2004</v>
       </c>
-      <c r="D561"/>
+      <c r="D561" t="n">
+        <v>5664808224.83789</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="s">
@@ -9530,7 +9512,9 @@
       <c r="C562" t="n">
         <v>2005</v>
       </c>
-      <c r="D562"/>
+      <c r="D562" t="n">
+        <v>6646663021.43571</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -9542,7 +9526,9 @@
       <c r="C563" t="n">
         <v>2006</v>
       </c>
-      <c r="D563"/>
+      <c r="D563" t="n">
+        <v>6689750813.00855</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
@@ -9554,7 +9540,9 @@
       <c r="C564" t="n">
         <v>2007</v>
       </c>
-      <c r="D564"/>
+      <c r="D564" t="n">
+        <v>6908605982.68468</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
@@ -9566,7 +9554,9 @@
       <c r="C565" t="n">
         <v>2008</v>
       </c>
-      <c r="D565"/>
+      <c r="D565" t="n">
+        <v>7119504412.49514</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
@@ -9578,7 +9568,9 @@
       <c r="C566" t="n">
         <v>2009</v>
       </c>
-      <c r="D566"/>
+      <c r="D566" t="n">
+        <v>7419783433.41801</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
@@ -9590,7 +9582,9 @@
       <c r="C567" t="n">
         <v>2010</v>
       </c>
-      <c r="D567"/>
+      <c r="D567" t="n">
+        <v>8425171572.20626</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
@@ -9602,7 +9596,9 @@
       <c r="C568" t="n">
         <v>2011</v>
       </c>
-      <c r="D568"/>
+      <c r="D568" t="n">
+        <v>8432153494.90622</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
@@ -9614,7 +9610,9 @@
       <c r="C569" t="n">
         <v>2012</v>
       </c>
-      <c r="D569"/>
+      <c r="D569" t="n">
+        <v>9181145943.57404</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
@@ -9626,7 +9624,9 @@
       <c r="C570" t="n">
         <v>2013</v>
       </c>
-      <c r="D570"/>
+      <c r="D570" t="n">
+        <v>9545225486.77832</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
@@ -9651,7 +9651,7 @@
         <v>2000</v>
       </c>
       <c r="D572" t="n">
-        <v>3050372770.07279</v>
+        <v>101250644204.012</v>
       </c>
     </row>
     <row r="573">
@@ -9665,7 +9665,7 @@
         <v>2001</v>
       </c>
       <c r="D573" t="n">
-        <v>3405989335.06579</v>
+        <v>104640698418.626</v>
       </c>
     </row>
     <row r="574">
@@ -9679,7 +9679,7 @@
         <v>2002</v>
       </c>
       <c r="D574" t="n">
-        <v>3695199035.91833</v>
+        <v>106908166747.188</v>
       </c>
     </row>
     <row r="575">
@@ -9693,7 +9693,7 @@
         <v>2003</v>
       </c>
       <c r="D575" t="n">
-        <v>4239193933.42068</v>
+        <v>111138254011.521</v>
       </c>
     </row>
     <row r="576">
@@ -9707,7 +9707,7 @@
         <v>2004</v>
       </c>
       <c r="D576" t="n">
-        <v>5664808224.83789</v>
+        <v>117852212336.75</v>
       </c>
     </row>
     <row r="577">
@@ -9721,7 +9721,7 @@
         <v>2005</v>
       </c>
       <c r="D577" t="n">
-        <v>6646663021.43571</v>
+        <v>124404150138.162</v>
       </c>
     </row>
     <row r="578">
@@ -9735,7 +9735,7 @@
         <v>2006</v>
       </c>
       <c r="D578" t="n">
-        <v>6689750813.00855</v>
+        <v>129884118977.357</v>
       </c>
     </row>
     <row r="579">
@@ -9749,7 +9749,7 @@
         <v>2007</v>
       </c>
       <c r="D579" t="n">
-        <v>6908605982.68468</v>
+        <v>136587211839.706</v>
       </c>
     </row>
     <row r="580">
@@ -9763,7 +9763,7 @@
         <v>2008</v>
       </c>
       <c r="D580" t="n">
-        <v>7119504412.49514</v>
+        <v>141084284172.823</v>
       </c>
     </row>
     <row r="581">
@@ -9777,7 +9777,7 @@
         <v>2009</v>
       </c>
       <c r="D581" t="n">
-        <v>7419783433.41801</v>
+        <v>139622043005.888</v>
       </c>
     </row>
     <row r="582">
@@ -9791,7 +9791,7 @@
         <v>2010</v>
       </c>
       <c r="D582" t="n">
-        <v>8425171572.20626</v>
+        <v>147668421646.384</v>
       </c>
     </row>
     <row r="583">
@@ -9805,7 +9805,7 @@
         <v>2011</v>
       </c>
       <c r="D583" t="n">
-        <v>8432153494.90622</v>
+        <v>156290684899.776</v>
       </c>
     </row>
     <row r="584">
@@ -9819,7 +9819,7 @@
         <v>2012</v>
       </c>
       <c r="D584" t="n">
-        <v>9181145943.57404</v>
+        <v>164701868785.195</v>
       </c>
     </row>
     <row r="585">
@@ -9833,7 +9833,7 @@
         <v>2013</v>
       </c>
       <c r="D585" t="n">
-        <v>9545225486.77832</v>
+        <v>171412998442.465</v>
       </c>
     </row>
     <row r="586">
@@ -9859,7 +9859,7 @@
         <v>2000</v>
       </c>
       <c r="D587" t="n">
-        <v>101250644204.012</v>
+        <v>1417014275043.53</v>
       </c>
     </row>
     <row r="588">
@@ -9873,7 +9873,7 @@
         <v>2001</v>
       </c>
       <c r="D588" t="n">
-        <v>104640698418.626</v>
+        <v>1534630960323.93</v>
       </c>
     </row>
     <row r="589">
@@ -9887,7 +9887,7 @@
         <v>2002</v>
       </c>
       <c r="D589" t="n">
-        <v>106908166747.188</v>
+        <v>1674007187686.08</v>
       </c>
     </row>
     <row r="590">
@@ -9901,7 +9901,7 @@
         <v>2003</v>
       </c>
       <c r="D590" t="n">
-        <v>111138254011.521</v>
+        <v>1841832749393.66</v>
       </c>
     </row>
     <row r="591">
@@ -9915,7 +9915,7 @@
         <v>2004</v>
       </c>
       <c r="D591" t="n">
-        <v>117852212336.75</v>
+        <v>2027582317057.12</v>
       </c>
     </row>
     <row r="592">
@@ -9929,7 +9929,7 @@
         <v>2005</v>
       </c>
       <c r="D592" t="n">
-        <v>124404150138.162</v>
+        <v>2256902590825.33</v>
       </c>
     </row>
     <row r="593">
@@ -9943,7 +9943,7 @@
         <v>2006</v>
       </c>
       <c r="D593" t="n">
-        <v>129884118977.357</v>
+        <v>2542999619606.87</v>
       </c>
     </row>
     <row r="594">
@@ -9957,7 +9957,7 @@
         <v>2007</v>
       </c>
       <c r="D594" t="n">
-        <v>136587211839.706</v>
+        <v>2903149270586.53</v>
       </c>
     </row>
     <row r="595">
@@ -9971,7 +9971,7 @@
         <v>2008</v>
       </c>
       <c r="D595" t="n">
-        <v>141084284172.823</v>
+        <v>3182858070163.14</v>
       </c>
     </row>
     <row r="596">
@@ -9985,7 +9985,7 @@
         <v>2009</v>
       </c>
       <c r="D596" t="n">
-        <v>139622043005.888</v>
+        <v>3476132943438.34</v>
       </c>
     </row>
     <row r="597">
@@ -9999,7 +9999,7 @@
         <v>2010</v>
       </c>
       <c r="D597" t="n">
-        <v>147668421646.384</v>
+        <v>3839284171057.07</v>
       </c>
     </row>
     <row r="598">
@@ -10013,7 +10013,7 @@
         <v>2011</v>
       </c>
       <c r="D598" t="n">
-        <v>156290684899.776</v>
+        <v>4196333192234.27</v>
       </c>
     </row>
     <row r="599">
@@ -10027,7 +10027,7 @@
         <v>2012</v>
       </c>
       <c r="D599" t="n">
-        <v>164701868785.195</v>
+        <v>4517459818035.1</v>
       </c>
     </row>
     <row r="600">
@@ -10041,7 +10041,7 @@
         <v>2013</v>
       </c>
       <c r="D600" t="n">
-        <v>171412998442.465</v>
+        <v>4864002775019.47</v>
       </c>
     </row>
     <row r="601">
@@ -10067,7 +10067,7 @@
         <v>2000</v>
       </c>
       <c r="D602" t="n">
-        <v>1417014275043.53</v>
+        <v>122659075458.942</v>
       </c>
     </row>
     <row r="603">
@@ -10081,7 +10081,7 @@
         <v>2001</v>
       </c>
       <c r="D603" t="n">
-        <v>1534630960323.93</v>
+        <v>124717170010.312</v>
       </c>
     </row>
     <row r="604">
@@ -10095,7 +10095,7 @@
         <v>2002</v>
       </c>
       <c r="D604" t="n">
-        <v>1674007187686.08</v>
+        <v>127840063584.493</v>
       </c>
     </row>
     <row r="605">
@@ -10109,7 +10109,7 @@
         <v>2003</v>
       </c>
       <c r="D605" t="n">
-        <v>1841832749393.66</v>
+        <v>132849184877.479</v>
       </c>
     </row>
     <row r="606">
@@ -10123,7 +10123,7 @@
         <v>2004</v>
       </c>
       <c r="D606" t="n">
-        <v>2027582317057.12</v>
+        <v>139934061223.428</v>
       </c>
     </row>
     <row r="607">
@@ -10137,7 +10137,7 @@
         <v>2005</v>
       </c>
       <c r="D607" t="n">
-        <v>2256902590825.33</v>
+        <v>146520136085.39</v>
       </c>
     </row>
     <row r="608">
@@ -10151,7 +10151,7 @@
         <v>2006</v>
       </c>
       <c r="D608" t="n">
-        <v>2542999619606.87</v>
+        <v>156333344555.32</v>
       </c>
     </row>
     <row r="609">
@@ -10165,7 +10165,7 @@
         <v>2007</v>
       </c>
       <c r="D609" t="n">
-        <v>2903149270586.53</v>
+        <v>167121326564.335</v>
       </c>
     </row>
     <row r="610">
@@ -10179,7 +10179,7 @@
         <v>2008</v>
       </c>
       <c r="D610" t="n">
-        <v>3182858070163.14</v>
+        <v>173048793940.101</v>
       </c>
     </row>
     <row r="611">
@@ -10193,7 +10193,7 @@
         <v>2009</v>
       </c>
       <c r="D611" t="n">
-        <v>3476132943438.34</v>
+        <v>175906779990.403</v>
       </c>
     </row>
     <row r="612">
@@ -10207,7 +10207,7 @@
         <v>2010</v>
       </c>
       <c r="D612" t="n">
-        <v>3839284171057.07</v>
+        <v>182893446717.743</v>
       </c>
     </row>
     <row r="613">
@@ -10221,7 +10221,7 @@
         <v>2011</v>
       </c>
       <c r="D613" t="n">
-        <v>4196333192234.27</v>
+        <v>194945231450.433</v>
       </c>
     </row>
     <row r="614">
@@ -10235,7 +10235,7 @@
         <v>2012</v>
       </c>
       <c r="D614" t="n">
-        <v>4517459818035.1</v>
+        <v>202838614174.139</v>
       </c>
     </row>
     <row r="615">
@@ -10249,7 +10249,7 @@
         <v>2013</v>
       </c>
       <c r="D615" t="n">
-        <v>4864002775019.47</v>
+        <v>212327472456.295</v>
       </c>
     </row>
     <row r="616">
@@ -10275,7 +10275,7 @@
         <v>2000</v>
       </c>
       <c r="D617" t="n">
-        <v>122659075458.942</v>
+        <v>310561432.649112</v>
       </c>
     </row>
     <row r="618">
@@ -10289,7 +10289,7 @@
         <v>2001</v>
       </c>
       <c r="D618" t="n">
-        <v>124717170010.312</v>
+        <v>347357517.658461</v>
       </c>
     </row>
     <row r="619">
@@ -10303,7 +10303,7 @@
         <v>2002</v>
       </c>
       <c r="D619" t="n">
-        <v>127840063584.493</v>
+        <v>355432813.184057</v>
       </c>
     </row>
     <row r="620">
@@ -10317,7 +10317,7 @@
         <v>2003</v>
       </c>
       <c r="D620" t="n">
-        <v>132849184877.479</v>
+        <v>362911481.947669</v>
       </c>
     </row>
     <row r="621">
@@ -10331,7 +10331,7 @@
         <v>2004</v>
       </c>
       <c r="D621" t="n">
-        <v>139934061223.428</v>
+        <v>369877939.390474</v>
       </c>
     </row>
     <row r="622">
@@ -10345,7 +10345,7 @@
         <v>2005</v>
       </c>
       <c r="D622" t="n">
-        <v>146520136085.39</v>
+        <v>380372884.760887</v>
       </c>
     </row>
     <row r="623">
@@ -10359,7 +10359,7 @@
         <v>2006</v>
       </c>
       <c r="D623" t="n">
-        <v>156333344555.32</v>
+        <v>390443622.936122</v>
       </c>
     </row>
     <row r="624">
@@ -10373,7 +10373,7 @@
         <v>2007</v>
       </c>
       <c r="D624" t="n">
-        <v>167121326564.335</v>
+        <v>393566144.716945</v>
       </c>
     </row>
     <row r="625">
@@ -10387,7 +10387,7 @@
         <v>2008</v>
       </c>
       <c r="D625" t="n">
-        <v>173048793940.101</v>
+        <v>395140409.171529</v>
       </c>
     </row>
     <row r="626">
@@ -10401,7 +10401,7 @@
         <v>2009</v>
       </c>
       <c r="D626" t="n">
-        <v>175906779990.403</v>
+        <v>402845647.062681</v>
       </c>
     </row>
     <row r="627">
@@ -10415,7 +10415,7 @@
         <v>2010</v>
       </c>
       <c r="D627" t="n">
-        <v>182893446717.743</v>
+        <v>411708251.224471</v>
       </c>
     </row>
     <row r="628">
@@ -10429,7 +10429,7 @@
         <v>2011</v>
       </c>
       <c r="D628" t="n">
-        <v>194945231450.433</v>
+        <v>422412666.119345</v>
       </c>
     </row>
     <row r="629">
@@ -10443,7 +10443,7 @@
         <v>2012</v>
       </c>
       <c r="D629" t="n">
-        <v>202838614174.139</v>
+        <v>435085045.984366</v>
       </c>
     </row>
     <row r="630">
@@ -10457,7 +10457,7 @@
         <v>2013</v>
       </c>
       <c r="D630" t="n">
-        <v>212327472456.295</v>
+        <v>450313022.567245</v>
       </c>
     </row>
     <row r="631">
@@ -10483,7 +10483,7 @@
         <v>2000</v>
       </c>
       <c r="D632" t="n">
-        <v>310561432.649112</v>
+        <v>4988137317.10777</v>
       </c>
     </row>
     <row r="633">
@@ -10497,7 +10497,7 @@
         <v>2001</v>
       </c>
       <c r="D633" t="n">
-        <v>347357517.658461</v>
+        <v>5177816321.51079</v>
       </c>
     </row>
     <row r="634">
@@ -10511,7 +10511,7 @@
         <v>2002</v>
       </c>
       <c r="D634" t="n">
-        <v>355432813.184057</v>
+        <v>5415057137.38335</v>
       </c>
     </row>
     <row r="635">
@@ -10525,7 +10525,7 @@
         <v>2003</v>
       </c>
       <c r="D635" t="n">
-        <v>362911481.947669</v>
+        <v>5459095851.707</v>
       </c>
     </row>
     <row r="636">
@@ -10539,7 +10539,7 @@
         <v>2004</v>
       </c>
       <c r="D636" t="n">
-        <v>369877939.390474</v>
+        <v>5648888504.40504</v>
       </c>
     </row>
     <row r="637">
@@ -10553,7 +10553,7 @@
         <v>2005</v>
       </c>
       <c r="D637" t="n">
-        <v>380372884.760887</v>
+        <v>6087002681.74095</v>
       </c>
     </row>
     <row r="638">
@@ -10567,7 +10567,7 @@
         <v>2006</v>
       </c>
       <c r="D638" t="n">
-        <v>390443622.936122</v>
+        <v>6466587987.13705</v>
       </c>
     </row>
     <row r="639">
@@ -10581,7 +10581,7 @@
         <v>2007</v>
       </c>
       <c r="D639" t="n">
-        <v>393566144.716945</v>
+        <v>6364272160.82738</v>
       </c>
     </row>
     <row r="640">
@@ -10595,7 +10595,7 @@
         <v>2008</v>
       </c>
       <c r="D640" t="n">
-        <v>395140409.171529</v>
+        <v>6718906218.30188</v>
       </c>
     </row>
     <row r="641">
@@ -10609,7 +10609,7 @@
         <v>2009</v>
       </c>
       <c r="D641" t="n">
-        <v>402845647.062681</v>
+        <v>7220733128.85193</v>
       </c>
     </row>
     <row r="642">
@@ -10623,7 +10623,7 @@
         <v>2010</v>
       </c>
       <c r="D642" t="n">
-        <v>411708251.224471</v>
+        <v>7852666838.46695</v>
       </c>
     </row>
     <row r="643">
@@ -10637,7 +10637,7 @@
         <v>2011</v>
       </c>
       <c r="D643" t="n">
-        <v>422412666.119345</v>
+        <v>8121276830.59425</v>
       </c>
     </row>
     <row r="644">
@@ -10651,7 +10651,7 @@
         <v>2012</v>
       </c>
       <c r="D644" t="n">
-        <v>435085045.984366</v>
+        <v>8429885013.41807</v>
       </c>
     </row>
     <row r="645">
@@ -10665,7 +10665,7 @@
         <v>2013</v>
       </c>
       <c r="D645" t="n">
-        <v>450313022.567245</v>
+        <v>8719932509.57574</v>
       </c>
     </row>
     <row r="646">
@@ -10691,7 +10691,7 @@
         <v>2000</v>
       </c>
       <c r="D647" t="n">
-        <v>4988137317.10777</v>
+        <v>16340941962.2526</v>
       </c>
     </row>
     <row r="648">
@@ -10705,7 +10705,7 @@
         <v>2001</v>
       </c>
       <c r="D648" t="n">
-        <v>5177816321.51079</v>
+        <v>16516835259.7016</v>
       </c>
     </row>
     <row r="649">
@@ -10719,7 +10719,7 @@
         <v>2002</v>
       </c>
       <c r="D649" t="n">
-        <v>5415057137.38335</v>
+        <v>16996184390.114</v>
       </c>
     </row>
     <row r="650">
@@ -10733,7 +10733,7 @@
         <v>2003</v>
       </c>
       <c r="D650" t="n">
-        <v>5459095851.707</v>
+        <v>18084706852.1144</v>
       </c>
     </row>
     <row r="651">
@@ -10747,7 +10747,7 @@
         <v>2004</v>
       </c>
       <c r="D651" t="n">
-        <v>5648888504.40504</v>
+        <v>18855016399.7246</v>
       </c>
     </row>
     <row r="652">
@@ -10761,7 +10761,7 @@
         <v>2005</v>
       </c>
       <c r="D652" t="n">
-        <v>6087002681.74095</v>
+        <v>19964893807.3935</v>
       </c>
     </row>
     <row r="653">
@@ -10775,7 +10775,7 @@
         <v>2006</v>
       </c>
       <c r="D653" t="n">
-        <v>6466587987.13705</v>
+        <v>21717739801.5097</v>
       </c>
     </row>
     <row r="654">
@@ -10789,7 +10789,7 @@
         <v>2007</v>
       </c>
       <c r="D654" t="n">
-        <v>6364272160.82738</v>
+        <v>23441116406.864</v>
       </c>
     </row>
     <row r="655">
@@ -10803,7 +10803,7 @@
         <v>2008</v>
       </c>
       <c r="D655" t="n">
-        <v>6718906218.30188</v>
+        <v>24081438729.6824</v>
       </c>
     </row>
     <row r="656">
@@ -10817,7 +10817,7 @@
         <v>2009</v>
       </c>
       <c r="D656" t="n">
-        <v>7220733128.85193</v>
+        <v>23836839014.3812</v>
       </c>
     </row>
     <row r="657">
@@ -10831,7 +10831,7 @@
         <v>2010</v>
       </c>
       <c r="D657" t="n">
-        <v>7852666838.46695</v>
+        <v>25017792422.6052</v>
       </c>
     </row>
     <row r="658">
@@ -10845,7 +10845,7 @@
         <v>2011</v>
       </c>
       <c r="D658" t="n">
-        <v>8121276830.59425</v>
+        <v>26146150049.6398</v>
       </c>
     </row>
     <row r="659">
@@ -10859,7 +10859,7 @@
         <v>2012</v>
       </c>
       <c r="D659" t="n">
-        <v>8429885013.41807</v>
+        <v>27488454359.9158</v>
       </c>
     </row>
     <row r="660">
@@ -10873,7 +10873,7 @@
         <v>2013</v>
       </c>
       <c r="D660" t="n">
-        <v>8719932509.57574</v>
+        <v>28449804624.6379</v>
       </c>
     </row>
     <row r="661">
@@ -10899,7 +10899,7 @@
         <v>2000</v>
       </c>
       <c r="D662" t="n">
-        <v>16340941962.2526</v>
+        <v>17085587280.0584</v>
       </c>
     </row>
     <row r="663">
@@ -10913,7 +10913,7 @@
         <v>2001</v>
       </c>
       <c r="D663" t="n">
-        <v>16516835259.7016</v>
+        <v>17081959929.322</v>
       </c>
     </row>
     <row r="664">
@@ -10927,7 +10927,7 @@
         <v>2002</v>
       </c>
       <c r="D664" t="n">
-        <v>16996184390.114</v>
+        <v>16837549854.0911</v>
       </c>
     </row>
     <row r="665">
@@ -10941,7 +10941,7 @@
         <v>2003</v>
       </c>
       <c r="D665" t="n">
-        <v>18084706852.1144</v>
+        <v>16575664553.5382</v>
       </c>
     </row>
     <row r="666">
@@ -10955,7 +10955,7 @@
         <v>2004</v>
       </c>
       <c r="D666" t="n">
-        <v>18855016399.7246</v>
+        <v>16873007966.3043</v>
       </c>
     </row>
     <row r="667">
@@ -10969,7 +10969,7 @@
         <v>2005</v>
       </c>
       <c r="D667" t="n">
-        <v>19964893807.3935</v>
+        <v>17084927539.8488</v>
       </c>
     </row>
     <row r="668">
@@ -10983,7 +10983,7 @@
         <v>2006</v>
       </c>
       <c r="D668" t="n">
-        <v>21717739801.5097</v>
+        <v>17343908109.2998</v>
       </c>
     </row>
     <row r="669">
@@ -10997,7 +10997,7 @@
         <v>2007</v>
       </c>
       <c r="D669" t="n">
-        <v>23441116406.864</v>
+        <v>17650034467.1732</v>
       </c>
     </row>
     <row r="670">
@@ -11011,7 +11011,7 @@
         <v>2008</v>
       </c>
       <c r="D670" t="n">
-        <v>24081438729.6824</v>
+        <v>18098846864.1737</v>
       </c>
     </row>
     <row r="671">
@@ -11025,7 +11025,7 @@
         <v>2009</v>
       </c>
       <c r="D671" t="n">
-        <v>23836839014.3812</v>
+        <v>18687322493.6039</v>
       </c>
     </row>
     <row r="672">
@@ -11039,7 +11039,7 @@
         <v>2010</v>
       </c>
       <c r="D672" t="n">
-        <v>25017792422.6052</v>
+        <v>19064365124.0563</v>
       </c>
     </row>
     <row r="673">
@@ -11053,7 +11053,7 @@
         <v>2011</v>
       </c>
       <c r="D673" t="n">
-        <v>26146150049.6398</v>
+        <v>18227961888.8237</v>
       </c>
     </row>
     <row r="674">
@@ -11067,7 +11067,7 @@
         <v>2012</v>
       </c>
       <c r="D674" t="n">
-        <v>27488454359.9158</v>
+        <v>20173630103.8468</v>
       </c>
     </row>
     <row r="675">
@@ -11081,7 +11081,7 @@
         <v>2013</v>
       </c>
       <c r="D675" t="n">
-        <v>28449804624.6379</v>
+        <v>21928892762.5909</v>
       </c>
     </row>
     <row r="676">
@@ -42887,7 +42887,7 @@
         <v>2000</v>
       </c>
       <c r="D3002" t="n">
-        <v>59536498012.223</v>
+        <v>2087472757675.02</v>
       </c>
     </row>
     <row r="3003">
@@ -42901,7 +42901,7 @@
         <v>2001</v>
       </c>
       <c r="D3003" t="n">
-        <v>65013855829.3475</v>
+        <v>2143094196588.48</v>
       </c>
     </row>
     <row r="3004">
@@ -42915,7 +42915,7 @@
         <v>2002</v>
       </c>
       <c r="D3004" t="n">
-        <v>68394576332.4735</v>
+        <v>2195648906208.81</v>
       </c>
     </row>
     <row r="3005">
@@ -42929,7 +42929,7 @@
         <v>2003</v>
       </c>
       <c r="D3005" t="n">
-        <v>74823666507.7262</v>
+        <v>2290071474883.26</v>
       </c>
     </row>
     <row r="3006">
@@ -42943,7 +42943,7 @@
         <v>2004</v>
       </c>
       <c r="D3006" t="n">
-        <v>83877330155.1611</v>
+        <v>2346267341719.22</v>
       </c>
     </row>
     <row r="3007">
@@ -42957,7 +42957,7 @@
         <v>2005</v>
       </c>
       <c r="D3007" t="n">
-        <v>86142018069.3504</v>
+        <v>2412116400352.73</v>
       </c>
     </row>
     <row r="3008">
@@ -42971,7 +42971,7 @@
         <v>2006</v>
       </c>
       <c r="D3008" t="n">
-        <v>92430385388.413</v>
+        <v>2485495291076.64</v>
       </c>
     </row>
     <row r="3009">
@@ -42985,7 +42985,7 @@
         <v>2007</v>
       </c>
       <c r="D3009" t="n">
-        <v>99732386543.7989</v>
+        <v>2549015503562.13</v>
       </c>
     </row>
     <row r="3010">
@@ -42999,7 +42999,7 @@
         <v>2008</v>
       </c>
       <c r="D3010" t="n">
-        <v>102026231434.306</v>
+        <v>2540551642277.71</v>
       </c>
     </row>
     <row r="3011">
@@ -43013,7 +43013,7 @@
         <v>2009</v>
       </c>
       <c r="D3011" t="n">
-        <v>86926349182.0289</v>
+        <v>2431038275328.11</v>
       </c>
     </row>
     <row r="3012">
@@ -43027,7 +43027,7 @@
         <v>2010</v>
       </c>
       <c r="D3012" t="n">
-        <v>90577255847.6741</v>
+        <v>2477504671226.28</v>
       </c>
     </row>
     <row r="3013">
@@ -43041,7 +43041,7 @@
         <v>2011</v>
       </c>
       <c r="D3013" t="n">
-        <v>95287273151.7531</v>
+        <v>2518262592189.67</v>
       </c>
     </row>
     <row r="3014">
@@ -43055,7 +43055,7 @@
         <v>2012</v>
       </c>
       <c r="D3014" t="n">
-        <v>95477847698.0567</v>
+        <v>2534858734299.2</v>
       </c>
     </row>
     <row r="3015">
@@ -43069,7 +43069,7 @@
         <v>2013</v>
       </c>
       <c r="D3015" t="n">
-        <v>97269311095.1739</v>
+        <v>2578691168033.84</v>
       </c>
     </row>
     <row r="3016">
@@ -43095,7 +43095,7 @@
         <v>2000</v>
       </c>
       <c r="D3017" t="n">
-        <v>2087472757675.02</v>
+        <v>59536498012.223</v>
       </c>
     </row>
     <row r="3018">
@@ -43109,7 +43109,7 @@
         <v>2001</v>
       </c>
       <c r="D3018" t="n">
-        <v>2143094196588.48</v>
+        <v>65013855829.3475</v>
       </c>
     </row>
     <row r="3019">
@@ -43123,7 +43123,7 @@
         <v>2002</v>
       </c>
       <c r="D3019" t="n">
-        <v>2195648906208.81</v>
+        <v>68394576332.4735</v>
       </c>
     </row>
     <row r="3020">
@@ -43137,7 +43137,7 @@
         <v>2003</v>
       </c>
       <c r="D3020" t="n">
-        <v>2290071474883.26</v>
+        <v>74823666507.7262</v>
       </c>
     </row>
     <row r="3021">
@@ -43151,7 +43151,7 @@
         <v>2004</v>
       </c>
       <c r="D3021" t="n">
-        <v>2346267341719.22</v>
+        <v>83877330155.1611</v>
       </c>
     </row>
     <row r="3022">
@@ -43165,7 +43165,7 @@
         <v>2005</v>
       </c>
       <c r="D3022" t="n">
-        <v>2412116400352.73</v>
+        <v>86142018069.3504</v>
       </c>
     </row>
     <row r="3023">
@@ -43179,7 +43179,7 @@
         <v>2006</v>
       </c>
       <c r="D3023" t="n">
-        <v>2485495291076.64</v>
+        <v>92430385388.413</v>
       </c>
     </row>
     <row r="3024">
@@ -43193,7 +43193,7 @@
         <v>2007</v>
       </c>
       <c r="D3024" t="n">
-        <v>2549015503562.13</v>
+        <v>99732386543.7989</v>
       </c>
     </row>
     <row r="3025">
@@ -43207,7 +43207,7 @@
         <v>2008</v>
       </c>
       <c r="D3025" t="n">
-        <v>2540551642277.71</v>
+        <v>102026231434.306</v>
       </c>
     </row>
     <row r="3026">
@@ -43221,7 +43221,7 @@
         <v>2009</v>
       </c>
       <c r="D3026" t="n">
-        <v>2431038275328.11</v>
+        <v>86926349182.0289</v>
       </c>
     </row>
     <row r="3027">
@@ -43235,7 +43235,7 @@
         <v>2010</v>
       </c>
       <c r="D3027" t="n">
-        <v>2477504671226.28</v>
+        <v>90577255847.6741</v>
       </c>
     </row>
     <row r="3028">
@@ -43249,7 +43249,7 @@
         <v>2011</v>
       </c>
       <c r="D3028" t="n">
-        <v>2518262592189.67</v>
+        <v>95287273151.7531</v>
       </c>
     </row>
     <row r="3029">
@@ -43263,7 +43263,7 @@
         <v>2012</v>
       </c>
       <c r="D3029" t="n">
-        <v>2534858734299.2</v>
+        <v>95477847698.0567</v>
       </c>
     </row>
     <row r="3030">
@@ -43277,7 +43277,7 @@
         <v>2013</v>
       </c>
       <c r="D3030" t="n">
-        <v>2578691168033.84</v>
+        <v>97269311095.1739</v>
       </c>
     </row>
     <row r="3031">
@@ -46946,46 +46946,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>17085587280.0584</v>
+        <v>4026612205.0413</v>
       </c>
       <c r="D33" t="n">
-        <v>17081959929.322</v>
+        <v>4350296727.34395</v>
       </c>
       <c r="E33" t="n">
-        <v>16837549854.0911</v>
+        <v>4641239388.9958</v>
       </c>
       <c r="F33" t="n">
-        <v>16575664553.5382</v>
+        <v>5036018513.98357</v>
       </c>
       <c r="G33" t="n">
-        <v>16873007966.3043</v>
+        <v>5556769455.1132</v>
       </c>
       <c r="H33" t="n">
-        <v>17084927539.8488</v>
+        <v>6293046162.12584</v>
       </c>
       <c r="I33" t="n">
-        <v>17343908109.2998</v>
+        <v>6970875649.4364</v>
       </c>
       <c r="J33" t="n">
-        <v>17650034467.1732</v>
+        <v>7682781330.76818</v>
       </c>
       <c r="K33" t="n">
-        <v>18098846864.1737</v>
+        <v>8196880595.72915</v>
       </c>
       <c r="L33" t="n">
-        <v>18687322493.6039</v>
+        <v>8203987041.96069</v>
       </c>
       <c r="M33" t="n">
-        <v>19064365124.0563</v>
+        <v>8693197235.58737</v>
       </c>
       <c r="N33" t="n">
-        <v>18227961888.8237</v>
+        <v>9307768894.69155</v>
       </c>
       <c r="O33" t="n">
-        <v>20173630103.8468</v>
+        <v>9988478192.79519</v>
       </c>
       <c r="P33" t="n">
-        <v>21928892762.5909</v>
+        <v>10728239024.4133</v>
       </c>
       <c r="Q33"/>
     </row>
@@ -46997,46 +46997,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>4026612205.0413</v>
+        <v>13827130249.6687</v>
       </c>
       <c r="D34" t="n">
-        <v>4350296727.34395</v>
+        <v>14451324392.6743</v>
       </c>
       <c r="E34" t="n">
-        <v>4641239388.9958</v>
+        <v>15030684428.7189</v>
       </c>
       <c r="F34" t="n">
-        <v>5036018513.98357</v>
+        <v>15636570313.337</v>
       </c>
       <c r="G34" t="n">
-        <v>5556769455.1132</v>
+        <v>16215413325.3553</v>
       </c>
       <c r="H34" t="n">
-        <v>6293046162.12584</v>
+        <v>16587857509.4422</v>
       </c>
       <c r="I34" t="n">
-        <v>6970875649.4364</v>
+        <v>17122650530.6179</v>
       </c>
       <c r="J34" t="n">
-        <v>7682781330.76818</v>
+        <v>17680106584.201</v>
       </c>
       <c r="K34" t="n">
-        <v>8196880595.72915</v>
+        <v>18190009032.2851</v>
       </c>
       <c r="L34" t="n">
-        <v>8203987041.96069</v>
+        <v>18541412829.2288</v>
       </c>
       <c r="M34" t="n">
-        <v>8693197235.58737</v>
+        <v>19147466510.8896</v>
       </c>
       <c r="N34" t="n">
-        <v>9307768894.69155</v>
+        <v>19940284948.0666</v>
       </c>
       <c r="O34" t="n">
-        <v>9988478192.79519</v>
+        <v>20855292520.4708</v>
       </c>
       <c r="P34" t="n">
-        <v>10728239024.4133</v>
+        <v>22015198848.7462</v>
       </c>
       <c r="Q34"/>
     </row>
@@ -47048,46 +47048,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>13827130249.6687</v>
+        <v>1026878406014.38</v>
       </c>
       <c r="D35" t="n">
-        <v>14451324392.6743</v>
+        <v>1044215955948.5</v>
       </c>
       <c r="E35" t="n">
-        <v>15030684428.7189</v>
+        <v>1073473509321.13</v>
       </c>
       <c r="F35" t="n">
-        <v>15636570313.337</v>
+        <v>1094141282236.08</v>
       </c>
       <c r="G35" t="n">
-        <v>16215413325.3553</v>
+        <v>1128484060363.83</v>
       </c>
       <c r="H35" t="n">
-        <v>16587857509.4422</v>
+        <v>1164179473989.7</v>
       </c>
       <c r="I35" t="n">
-        <v>17122650530.6179</v>
+        <v>1194701718212.31</v>
       </c>
       <c r="J35" t="n">
-        <v>17680106584.201</v>
+        <v>1218695044466.88</v>
       </c>
       <c r="K35" t="n">
-        <v>18190009032.2851</v>
+        <v>1233019906197.31</v>
       </c>
       <c r="L35" t="n">
-        <v>18541412829.2288</v>
+        <v>1199586927260.28</v>
       </c>
       <c r="M35" t="n">
-        <v>19147466510.8896</v>
+        <v>1240064039787.75</v>
       </c>
       <c r="N35" t="n">
-        <v>19940284948.0666</v>
+        <v>1271415142973.47</v>
       </c>
       <c r="O35" t="n">
-        <v>20855292520.4708</v>
+        <v>1293143699677.33</v>
       </c>
       <c r="P35" t="n">
-        <v>22015198848.7462</v>
+        <v>1319291280915.69</v>
       </c>
       <c r="Q35"/>
     </row>
@@ -47099,46 +47099,46 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>1026878406014.38</v>
+        <v>735999746.133224</v>
       </c>
       <c r="D36" t="n">
-        <v>1044215955948.5</v>
+        <v>752424717.535168</v>
       </c>
       <c r="E36" t="n">
-        <v>1073473509321.13</v>
+        <v>791933721.161982</v>
       </c>
       <c r="F36" t="n">
-        <v>1094141282236.08</v>
+        <v>825006926.855721</v>
       </c>
       <c r="G36" t="n">
-        <v>1128484060363.83</v>
+        <v>909133482.21766</v>
       </c>
       <c r="H36" t="n">
-        <v>1164179473989.7</v>
+        <v>971976952.231872</v>
       </c>
       <c r="I36" t="n">
-        <v>1194701718212.31</v>
+        <v>1049577166.50086</v>
       </c>
       <c r="J36" t="n">
-        <v>1218695044466.88</v>
+        <v>1208805243.41975</v>
       </c>
       <c r="K36" t="n">
-        <v>1233019906197.31</v>
+        <v>1289197084.21161</v>
       </c>
       <c r="L36" t="n">
-        <v>1199586927260.28</v>
+        <v>1272819077.0815</v>
       </c>
       <c r="M36" t="n">
-        <v>1240064039787.75</v>
+        <v>1291490221.89025</v>
       </c>
       <c r="N36" t="n">
-        <v>1271415142973.47</v>
+        <v>1342746676.74738</v>
       </c>
       <c r="O36" t="n">
-        <v>1293143699677.33</v>
+        <v>1359346553.36874</v>
       </c>
       <c r="P36" t="n">
-        <v>1319291280915.69</v>
+        <v>1366640588.70804</v>
       </c>
       <c r="Q36"/>
     </row>
@@ -47150,46 +47150,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>735999746.133224</v>
+        <v>1232871264.44534</v>
       </c>
       <c r="D37" t="n">
-        <v>752424717.535168</v>
+        <v>1287916286.65064</v>
       </c>
       <c r="E37" t="n">
-        <v>791933721.161982</v>
+        <v>1334493624.8209</v>
       </c>
       <c r="F37" t="n">
-        <v>825006926.855721</v>
+        <v>1262464741.98341</v>
       </c>
       <c r="G37" t="n">
-        <v>909133482.21766</v>
+        <v>1338149398.75938</v>
       </c>
       <c r="H37" t="n">
-        <v>971976952.231872</v>
+        <v>1350300947.46755</v>
       </c>
       <c r="I37" t="n">
-        <v>1049577166.50086</v>
+        <v>1452928387.05305</v>
       </c>
       <c r="J37" t="n">
-        <v>1208805243.41975</v>
+        <v>1570946903.87335</v>
       </c>
       <c r="K37" t="n">
-        <v>1289197084.21161</v>
+        <v>1632089449.71026</v>
       </c>
       <c r="L37" t="n">
-        <v>1272819077.0815</v>
+        <v>1777461809.35585</v>
       </c>
       <c r="M37" t="n">
-        <v>1291490221.89025</v>
+        <v>1895403784.96609</v>
       </c>
       <c r="N37" t="n">
-        <v>1342746676.74738</v>
+        <v>1957951366.23874</v>
       </c>
       <c r="O37" t="n">
-        <v>1359346553.36874</v>
+        <v>2038226859.11244</v>
       </c>
       <c r="P37" t="n">
-        <v>1366640588.70804</v>
+        <v>1304465871.49672</v>
       </c>
       <c r="Q37"/>
     </row>
@@ -47200,48 +47200,20 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>1232871264.44534</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1287916286.65064</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1334493624.8209</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1262464741.98341</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1338149398.75938</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1350300947.46755</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1452928387.05305</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1570946903.87335</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1632089449.71026</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1777461809.35585</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1895403784.96609</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1957951366.23874</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2038226859.11244</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1304465871.49672</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
       <c r="Q38"/>
     </row>
     <row r="39">
@@ -47251,20 +47223,48 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="C39" t="n">
+        <v>3050372770.07279</v>
+      </c>
+      <c r="D39" t="n">
+        <v>3405989335.06579</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3695199035.91833</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4239193933.42068</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5664808224.83789</v>
+      </c>
+      <c r="H39" t="n">
+        <v>6646663021.43571</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6689750813.00855</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6908605982.68468</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7119504412.49514</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7419783433.41801</v>
+      </c>
+      <c r="M39" t="n">
+        <v>8425171572.20626</v>
+      </c>
+      <c r="N39" t="n">
+        <v>8432153494.90622</v>
+      </c>
+      <c r="O39" t="n">
+        <v>9181145943.57404</v>
+      </c>
+      <c r="P39" t="n">
+        <v>9545225486.77832</v>
+      </c>
       <c r="Q39"/>
     </row>
     <row r="40">
@@ -47275,46 +47275,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>3050372770.07279</v>
+        <v>101250644204.012</v>
       </c>
       <c r="D40" t="n">
-        <v>3405989335.06579</v>
+        <v>104640698418.626</v>
       </c>
       <c r="E40" t="n">
-        <v>3695199035.91833</v>
+        <v>106908166747.188</v>
       </c>
       <c r="F40" t="n">
-        <v>4239193933.42068</v>
+        <v>111138254011.521</v>
       </c>
       <c r="G40" t="n">
-        <v>5664808224.83789</v>
+        <v>117852212336.75</v>
       </c>
       <c r="H40" t="n">
-        <v>6646663021.43571</v>
+        <v>124404150138.162</v>
       </c>
       <c r="I40" t="n">
-        <v>6689750813.00855</v>
+        <v>129884118977.357</v>
       </c>
       <c r="J40" t="n">
-        <v>6908605982.68468</v>
+        <v>136587211839.706</v>
       </c>
       <c r="K40" t="n">
-        <v>7119504412.49514</v>
+        <v>141084284172.823</v>
       </c>
       <c r="L40" t="n">
-        <v>7419783433.41801</v>
+        <v>139622043005.888</v>
       </c>
       <c r="M40" t="n">
-        <v>8425171572.20626</v>
+        <v>147668421646.384</v>
       </c>
       <c r="N40" t="n">
-        <v>8432153494.90622</v>
+        <v>156290684899.776</v>
       </c>
       <c r="O40" t="n">
-        <v>9181145943.57404</v>
+        <v>164701868785.195</v>
       </c>
       <c r="P40" t="n">
-        <v>9545225486.77832</v>
+        <v>171412998442.465</v>
       </c>
       <c r="Q40"/>
     </row>
@@ -47326,46 +47326,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>101250644204.012</v>
+        <v>1417014275043.53</v>
       </c>
       <c r="D41" t="n">
-        <v>104640698418.626</v>
+        <v>1534630960323.93</v>
       </c>
       <c r="E41" t="n">
-        <v>106908166747.188</v>
+        <v>1674007187686.08</v>
       </c>
       <c r="F41" t="n">
-        <v>111138254011.521</v>
+        <v>1841832749393.66</v>
       </c>
       <c r="G41" t="n">
-        <v>117852212336.75</v>
+        <v>2027582317057.12</v>
       </c>
       <c r="H41" t="n">
-        <v>124404150138.162</v>
+        <v>2256902590825.33</v>
       </c>
       <c r="I41" t="n">
-        <v>129884118977.357</v>
+        <v>2542999619606.87</v>
       </c>
       <c r="J41" t="n">
-        <v>136587211839.706</v>
+        <v>2903149270586.53</v>
       </c>
       <c r="K41" t="n">
-        <v>141084284172.823</v>
+        <v>3182858070163.14</v>
       </c>
       <c r="L41" t="n">
-        <v>139622043005.888</v>
+        <v>3476132943438.34</v>
       </c>
       <c r="M41" t="n">
-        <v>147668421646.384</v>
+        <v>3839284171057.07</v>
       </c>
       <c r="N41" t="n">
-        <v>156290684899.776</v>
+        <v>4196333192234.27</v>
       </c>
       <c r="O41" t="n">
-        <v>164701868785.195</v>
+        <v>4517459818035.1</v>
       </c>
       <c r="P41" t="n">
-        <v>171412998442.465</v>
+        <v>4864002775019.47</v>
       </c>
       <c r="Q41"/>
     </row>
@@ -47377,46 +47377,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>1417014275043.53</v>
+        <v>122659075458.942</v>
       </c>
       <c r="D42" t="n">
-        <v>1534630960323.93</v>
+        <v>124717170010.312</v>
       </c>
       <c r="E42" t="n">
-        <v>1674007187686.08</v>
+        <v>127840063584.493</v>
       </c>
       <c r="F42" t="n">
-        <v>1841832749393.66</v>
+        <v>132849184877.479</v>
       </c>
       <c r="G42" t="n">
-        <v>2027582317057.12</v>
+        <v>139934061223.428</v>
       </c>
       <c r="H42" t="n">
-        <v>2256902590825.33</v>
+        <v>146520136085.39</v>
       </c>
       <c r="I42" t="n">
-        <v>2542999619606.87</v>
+        <v>156333344555.32</v>
       </c>
       <c r="J42" t="n">
-        <v>2903149270586.53</v>
+        <v>167121326564.335</v>
       </c>
       <c r="K42" t="n">
-        <v>3182858070163.14</v>
+        <v>173048793940.101</v>
       </c>
       <c r="L42" t="n">
-        <v>3476132943438.34</v>
+        <v>175906779990.403</v>
       </c>
       <c r="M42" t="n">
-        <v>3839284171057.07</v>
+        <v>182893446717.743</v>
       </c>
       <c r="N42" t="n">
-        <v>4196333192234.27</v>
+        <v>194945231450.433</v>
       </c>
       <c r="O42" t="n">
-        <v>4517459818035.1</v>
+        <v>202838614174.139</v>
       </c>
       <c r="P42" t="n">
-        <v>4864002775019.47</v>
+        <v>212327472456.295</v>
       </c>
       <c r="Q42"/>
     </row>
@@ -47428,46 +47428,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>122659075458.942</v>
+        <v>310561432.649112</v>
       </c>
       <c r="D43" t="n">
-        <v>124717170010.312</v>
+        <v>347357517.658461</v>
       </c>
       <c r="E43" t="n">
-        <v>127840063584.493</v>
+        <v>355432813.184057</v>
       </c>
       <c r="F43" t="n">
-        <v>132849184877.479</v>
+        <v>362911481.947669</v>
       </c>
       <c r="G43" t="n">
-        <v>139934061223.428</v>
+        <v>369877939.390474</v>
       </c>
       <c r="H43" t="n">
-        <v>146520136085.39</v>
+        <v>380372884.760887</v>
       </c>
       <c r="I43" t="n">
-        <v>156333344555.32</v>
+        <v>390443622.936122</v>
       </c>
       <c r="J43" t="n">
-        <v>167121326564.335</v>
+        <v>393566144.716945</v>
       </c>
       <c r="K43" t="n">
-        <v>173048793940.101</v>
+        <v>395140409.171529</v>
       </c>
       <c r="L43" t="n">
-        <v>175906779990.403</v>
+        <v>402845647.062681</v>
       </c>
       <c r="M43" t="n">
-        <v>182893446717.743</v>
+        <v>411708251.224471</v>
       </c>
       <c r="N43" t="n">
-        <v>194945231450.433</v>
+        <v>422412666.119345</v>
       </c>
       <c r="O43" t="n">
-        <v>202838614174.139</v>
+        <v>435085045.984366</v>
       </c>
       <c r="P43" t="n">
-        <v>212327472456.295</v>
+        <v>450313022.567245</v>
       </c>
       <c r="Q43"/>
     </row>
@@ -47479,46 +47479,46 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>310561432.649112</v>
+        <v>4988137317.10777</v>
       </c>
       <c r="D44" t="n">
-        <v>347357517.658461</v>
+        <v>5177816321.51079</v>
       </c>
       <c r="E44" t="n">
-        <v>355432813.184057</v>
+        <v>5415057137.38335</v>
       </c>
       <c r="F44" t="n">
-        <v>362911481.947669</v>
+        <v>5459095851.707</v>
       </c>
       <c r="G44" t="n">
-        <v>369877939.390474</v>
+        <v>5648888504.40504</v>
       </c>
       <c r="H44" t="n">
-        <v>380372884.760887</v>
+        <v>6087002681.74095</v>
       </c>
       <c r="I44" t="n">
-        <v>390443622.936122</v>
+        <v>6466587987.13705</v>
       </c>
       <c r="J44" t="n">
-        <v>393566144.716945</v>
+        <v>6364272160.82738</v>
       </c>
       <c r="K44" t="n">
-        <v>395140409.171529</v>
+        <v>6718906218.30188</v>
       </c>
       <c r="L44" t="n">
-        <v>402845647.062681</v>
+        <v>7220733128.85193</v>
       </c>
       <c r="M44" t="n">
-        <v>411708251.224471</v>
+        <v>7852666838.46695</v>
       </c>
       <c r="N44" t="n">
-        <v>422412666.119345</v>
+        <v>8121276830.59425</v>
       </c>
       <c r="O44" t="n">
-        <v>435085045.984366</v>
+        <v>8429885013.41807</v>
       </c>
       <c r="P44" t="n">
-        <v>450313022.567245</v>
+        <v>8719932509.57574</v>
       </c>
       <c r="Q44"/>
     </row>
@@ -47530,46 +47530,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>4988137317.10777</v>
+        <v>16340941962.2526</v>
       </c>
       <c r="D45" t="n">
-        <v>5177816321.51079</v>
+        <v>16516835259.7016</v>
       </c>
       <c r="E45" t="n">
-        <v>5415057137.38335</v>
+        <v>16996184390.114</v>
       </c>
       <c r="F45" t="n">
-        <v>5459095851.707</v>
+        <v>18084706852.1144</v>
       </c>
       <c r="G45" t="n">
-        <v>5648888504.40504</v>
+        <v>18855016399.7246</v>
       </c>
       <c r="H45" t="n">
-        <v>6087002681.74095</v>
+        <v>19964893807.3935</v>
       </c>
       <c r="I45" t="n">
-        <v>6466587987.13705</v>
+        <v>21717739801.5097</v>
       </c>
       <c r="J45" t="n">
-        <v>6364272160.82738</v>
+        <v>23441116406.864</v>
       </c>
       <c r="K45" t="n">
-        <v>6718906218.30188</v>
+        <v>24081438729.6824</v>
       </c>
       <c r="L45" t="n">
-        <v>7220733128.85193</v>
+        <v>23836839014.3812</v>
       </c>
       <c r="M45" t="n">
-        <v>7852666838.46695</v>
+        <v>25017792422.6052</v>
       </c>
       <c r="N45" t="n">
-        <v>8121276830.59425</v>
+        <v>26146150049.6398</v>
       </c>
       <c r="O45" t="n">
-        <v>8429885013.41807</v>
+        <v>27488454359.9158</v>
       </c>
       <c r="P45" t="n">
-        <v>8719932509.57574</v>
+        <v>28449804624.6379</v>
       </c>
       <c r="Q45"/>
     </row>
@@ -47581,46 +47581,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>16340941962.2526</v>
+        <v>17085587280.0584</v>
       </c>
       <c r="D46" t="n">
-        <v>16516835259.7016</v>
+        <v>17081959929.322</v>
       </c>
       <c r="E46" t="n">
-        <v>16996184390.114</v>
+        <v>16837549854.0911</v>
       </c>
       <c r="F46" t="n">
-        <v>18084706852.1144</v>
+        <v>16575664553.5382</v>
       </c>
       <c r="G46" t="n">
-        <v>18855016399.7246</v>
+        <v>16873007966.3043</v>
       </c>
       <c r="H46" t="n">
-        <v>19964893807.3935</v>
+        <v>17084927539.8488</v>
       </c>
       <c r="I46" t="n">
-        <v>21717739801.5097</v>
+        <v>17343908109.2998</v>
       </c>
       <c r="J46" t="n">
-        <v>23441116406.864</v>
+        <v>17650034467.1732</v>
       </c>
       <c r="K46" t="n">
-        <v>24081438729.6824</v>
+        <v>18098846864.1737</v>
       </c>
       <c r="L46" t="n">
-        <v>23836839014.3812</v>
+        <v>18687322493.6039</v>
       </c>
       <c r="M46" t="n">
-        <v>25017792422.6052</v>
+        <v>19064365124.0563</v>
       </c>
       <c r="N46" t="n">
-        <v>26146150049.6398</v>
+        <v>18227961888.8237</v>
       </c>
       <c r="O46" t="n">
-        <v>27488454359.9158</v>
+        <v>20173630103.8468</v>
       </c>
       <c r="P46" t="n">
-        <v>28449804624.6379</v>
+        <v>21928892762.5909</v>
       </c>
       <c r="Q46"/>
     </row>
@@ -55077,46 +55077,46 @@
         <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>59536498012.223</v>
+        <v>2087472757675.02</v>
       </c>
       <c r="D202" t="n">
-        <v>65013855829.3475</v>
+        <v>2143094196588.48</v>
       </c>
       <c r="E202" t="n">
-        <v>68394576332.4735</v>
+        <v>2195648906208.81</v>
       </c>
       <c r="F202" t="n">
-        <v>74823666507.7262</v>
+        <v>2290071474883.26</v>
       </c>
       <c r="G202" t="n">
-        <v>83877330155.1611</v>
+        <v>2346267341719.22</v>
       </c>
       <c r="H202" t="n">
-        <v>86142018069.3504</v>
+        <v>2412116400352.73</v>
       </c>
       <c r="I202" t="n">
-        <v>92430385388.413</v>
+        <v>2485495291076.64</v>
       </c>
       <c r="J202" t="n">
-        <v>99732386543.7989</v>
+        <v>2549015503562.13</v>
       </c>
       <c r="K202" t="n">
-        <v>102026231434.306</v>
+        <v>2540551642277.71</v>
       </c>
       <c r="L202" t="n">
-        <v>86926349182.0289</v>
+        <v>2431038275328.11</v>
       </c>
       <c r="M202" t="n">
-        <v>90577255847.6741</v>
+        <v>2477504671226.28</v>
       </c>
       <c r="N202" t="n">
-        <v>95287273151.7531</v>
+        <v>2518262592189.67</v>
       </c>
       <c r="O202" t="n">
-        <v>95477847698.0567</v>
+        <v>2534858734299.2</v>
       </c>
       <c r="P202" t="n">
-        <v>97269311095.1739</v>
+        <v>2578691168033.84</v>
       </c>
       <c r="Q202"/>
     </row>
@@ -55128,46 +55128,46 @@
         <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>2087472757675.02</v>
+        <v>59536498012.223</v>
       </c>
       <c r="D203" t="n">
-        <v>2143094196588.48</v>
+        <v>65013855829.3475</v>
       </c>
       <c r="E203" t="n">
-        <v>2195648906208.81</v>
+        <v>68394576332.4735</v>
       </c>
       <c r="F203" t="n">
-        <v>2290071474883.26</v>
+        <v>74823666507.7262</v>
       </c>
       <c r="G203" t="n">
-        <v>2346267341719.22</v>
+        <v>83877330155.1611</v>
       </c>
       <c r="H203" t="n">
-        <v>2412116400352.73</v>
+        <v>86142018069.3504</v>
       </c>
       <c r="I203" t="n">
-        <v>2485495291076.64</v>
+        <v>92430385388.413</v>
       </c>
       <c r="J203" t="n">
-        <v>2549015503562.13</v>
+        <v>99732386543.7989</v>
       </c>
       <c r="K203" t="n">
-        <v>2540551642277.71</v>
+        <v>102026231434.306</v>
       </c>
       <c r="L203" t="n">
-        <v>2431038275328.11</v>
+        <v>86926349182.0289</v>
       </c>
       <c r="M203" t="n">
-        <v>2477504671226.28</v>
+        <v>90577255847.6741</v>
       </c>
       <c r="N203" t="n">
-        <v>2518262592189.67</v>
+        <v>95287273151.7531</v>
       </c>
       <c r="O203" t="n">
-        <v>2534858734299.2</v>
+        <v>95477847698.0567</v>
       </c>
       <c r="P203" t="n">
-        <v>2578691168033.84</v>
+        <v>97269311095.1739</v>
       </c>
       <c r="Q203"/>
     </row>
